--- a/Src/Results_insertion/output_insertion_high_[2, 2]_0.xlsx
+++ b/Src/Results_insertion/output_insertion_high_[2, 2]_0.xlsx
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01563644409179688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="8">
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005518436431884766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0162503719329834</v>
+        <v>0.01605916023254395</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01362085342407227</v>
+        <v>0.02594470977783203</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.005932807922363281</v>
       </c>
     </row>
     <row r="14">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1176111698150635</v>
+        <v>0.0774693489074707</v>
       </c>
     </row>
     <row r="15">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03279876708984375</v>
+        <v>0.04897141456604004</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002688884735107422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00489497184753418</v>
+        <v>0.002053976058959961</v>
       </c>
     </row>
     <row r="20">
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02148580551147461</v>
+        <v>0.02978205680847168</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02617573738098145</v>
+        <v>0.006841659545898438</v>
       </c>
     </row>
     <row r="22">
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.01694416999816895</v>
       </c>
     </row>
     <row r="24">
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007458686828613281</v>
+        <v>0.005001544952392578</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008991241455078125</v>
+        <v>0.0167233943939209</v>
       </c>
     </row>
     <row r="27">
@@ -1729,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0007431507110595703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1823,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01000452041625977</v>
+        <v>0.05733132362365723</v>
       </c>
     </row>
     <row r="30">
@@ -1870,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01647448539733887</v>
+        <v>0.0213463306427002</v>
       </c>
     </row>
     <row r="31">
@@ -1917,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0162200927734375</v>
+        <v>0.02427220344543457</v>
       </c>
     </row>
     <row r="32">
@@ -1964,7 +1964,7 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02174758911132812</v>
+        <v>0.01630258560180664</v>
       </c>
     </row>
     <row r="33">
@@ -2011,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="34">
@@ -2058,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>0.005231857299804688</v>
+        <v>0.01202583312988281</v>
       </c>
     </row>
     <row r="35">
@@ -2105,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01310253143310547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2152,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.002997636795043945</v>
       </c>
     </row>
     <row r="37">
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01562905311584473</v>
+        <v>0.02444839477539062</v>
       </c>
     </row>
     <row r="38">
@@ -2246,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.01499128341674805</v>
       </c>
     </row>
     <row r="39">
@@ -2387,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.01192498207092285</v>
       </c>
     </row>
     <row r="42">
@@ -2528,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>0.001101970672607422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2716,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.01692819595336914</v>
       </c>
     </row>
     <row r="49">
@@ -2763,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01208734512329102</v>
+        <v>0.009581327438354492</v>
       </c>
     </row>
     <row r="50">
@@ -2810,7 +2810,7 @@
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01564526557922363</v>
+        <v>0.00203394889831543</v>
       </c>
     </row>
     <row r="51">
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01898026466369629</v>
+        <v>0.01462578773498535</v>
       </c>
     </row>
     <row r="54">
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
     </row>
     <row r="55">
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.003154993057250977</v>
       </c>
     </row>
     <row r="58">
@@ -3186,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.0008606910705566406</v>
       </c>
     </row>
     <row r="59">
@@ -3233,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0101020336151123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3280,7 +3280,7 @@
         <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>0.005997180938720703</v>
       </c>
     </row>
     <row r="61">
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>0.01569676399230957</v>
+        <v>0.000682830810546875</v>
       </c>
     </row>
     <row r="62">
@@ -3374,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>0.002043008804321289</v>
       </c>
     </row>
     <row r="63">
@@ -3421,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>0.001001119613647461</v>
       </c>
     </row>
     <row r="64">
@@ -3468,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="O64" t="n">
-        <v>0.01963043212890625</v>
+        <v>0.01990151405334473</v>
       </c>
     </row>
     <row r="65">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1531198024749756</v>
+        <v>0.1624987125396729</v>
       </c>
     </row>
     <row r="66">
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>0.01932072639465332</v>
+        <v>0.03593325614929199</v>
       </c>
     </row>
     <row r="67">
@@ -3609,7 +3609,7 @@
         <v>12</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>0.003111124038696289</v>
       </c>
     </row>
     <row r="68">
@@ -3656,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="O68" t="n">
-        <v>0.02044296264648438</v>
+        <v>0.03015756607055664</v>
       </c>
     </row>
     <row r="69">
@@ -3703,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>0.0009362697601318359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3750,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="O70" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.01012277603149414</v>
       </c>
     </row>
     <row r="71">
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.147840976715088</v>
+        <v>1.693661689758301</v>
       </c>
     </row>
     <row r="72">
@@ -3844,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="O72" t="n">
-        <v>2.532630443572998</v>
+        <v>3.157593727111816</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         <v>12</v>
       </c>
       <c r="O73" t="n">
-        <v>0.02161693572998047</v>
+        <v>0.04002022743225098</v>
       </c>
     </row>
     <row r="74">
@@ -3985,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="O75" t="n">
-        <v>0.001043796539306641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4032,7 +4032,7 @@
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>0.0009951591491699219</v>
       </c>
     </row>
     <row r="77">
@@ -4126,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01609516143798828</v>
+        <v>0.02655601501464844</v>
       </c>
     </row>
     <row r="79">
@@ -4173,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01414227485656738</v>
+        <v>0.01642394065856934</v>
       </c>
     </row>
     <row r="80">
@@ -4220,7 +4220,7 @@
         <v>19</v>
       </c>
       <c r="O80" t="n">
-        <v>0.001047134399414062</v>
+        <v>0.003007173538208008</v>
       </c>
     </row>
     <row r="81">
@@ -4267,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="O81" t="n">
-        <v>0.2706682682037354</v>
+        <v>0.2855050563812256</v>
       </c>
     </row>
     <row r="82">
@@ -4314,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="O82" t="n">
-        <v>0.04168987274169922</v>
+        <v>0.04378747940063477</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4361,7 @@
         <v>22</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1319417953491211</v>
+        <v>0.1323230266571045</v>
       </c>
     </row>
     <row r="84">
@@ -4408,7 +4408,7 @@
         <v>22</v>
       </c>
       <c r="O84" t="n">
-        <v>11.09130764007568</v>
+        <v>13.45798468589783</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         <v>22</v>
       </c>
       <c r="O85" t="n">
-        <v>0.1357848644256592</v>
+        <v>0.1207764148712158</v>
       </c>
     </row>
     <row r="86">
@@ -4502,7 +4502,7 @@
         <v>18</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>0.01582813262939453</v>
       </c>
     </row>
     <row r="87">
@@ -4596,7 +4596,7 @@
         <v>20</v>
       </c>
       <c r="O88" t="n">
-        <v>0.006611347198486328</v>
+        <v>0.0159459114074707</v>
       </c>
     </row>
     <row r="89">
@@ -4690,7 +4690,7 @@
         <v>20</v>
       </c>
       <c r="O90" t="n">
-        <v>0.1187744140625</v>
+        <v>0.1421191692352295</v>
       </c>
     </row>
     <row r="91">
@@ -4737,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="O91" t="n">
-        <v>0.05867910385131836</v>
+        <v>0.008006572723388672</v>
       </c>
     </row>
     <row r="92">
@@ -4784,7 +4784,7 @@
         <v>21</v>
       </c>
       <c r="O92" t="n">
-        <v>0.2064518928527832</v>
+        <v>0.1319520473480225</v>
       </c>
     </row>
     <row r="93">
@@ -4878,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01571249961853027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4925,7 +4925,7 @@
         <v>20</v>
       </c>
       <c r="O95" t="n">
-        <v>0.008001565933227539</v>
+        <v>0.001003026962280273</v>
       </c>
     </row>
     <row r="96">
@@ -4972,7 +4972,7 @@
         <v>22</v>
       </c>
       <c r="O96" t="n">
-        <v>0.3490302562713623</v>
+        <v>0.07441973686218262</v>
       </c>
     </row>
     <row r="97">
@@ -5019,7 +5019,7 @@
         <v>21</v>
       </c>
       <c r="O97" t="n">
-        <v>0.01600432395935059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5066,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="O98" t="n">
-        <v>0.003873109817504883</v>
+        <v>0.002004861831665039</v>
       </c>
     </row>
     <row r="99">
@@ -5113,7 +5113,7 @@
         <v>23</v>
       </c>
       <c r="O99" t="n">
-        <v>0.006855964660644531</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="100">
@@ -5160,7 +5160,7 @@
         <v>23</v>
       </c>
       <c r="O100" t="n">
-        <v>0.1516554355621338</v>
+        <v>0.05442190170288086</v>
       </c>
     </row>
     <row r="101">
@@ -5301,7 +5301,7 @@
         <v>16</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
     </row>
     <row r="104">
@@ -5348,7 +5348,7 @@
         <v>18</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06997203826904297</v>
+        <v>0.02299046516418457</v>
       </c>
     </row>
     <row r="105">
@@ -5395,7 +5395,7 @@
         <v>14</v>
       </c>
       <c r="O105" t="n">
-        <v>0.001990079879760742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5442,7 +5442,7 @@
         <v>15</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02761507034301758</v>
+        <v>0.01633620262145996</v>
       </c>
     </row>
     <row r="107">
@@ -5489,7 +5489,7 @@
         <v>15</v>
       </c>
       <c r="O107" t="n">
-        <v>0.01664948463439941</v>
+        <v>0.03007650375366211</v>
       </c>
     </row>
     <row r="108">
@@ -5536,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="O108" t="n">
-        <v>0.04216480255126953</v>
+        <v>0.02606344223022461</v>
       </c>
     </row>
     <row r="109">
@@ -5583,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="O109" t="n">
-        <v>0.01309490203857422</v>
+        <v>0.001001358032226562</v>
       </c>
     </row>
     <row r="110">
@@ -5630,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="O110" t="n">
-        <v>0.002017974853515625</v>
+        <v>0.001001596450805664</v>
       </c>
     </row>
     <row r="111">
@@ -5677,7 +5677,7 @@
         <v>14</v>
       </c>
       <c r="O111" t="n">
-        <v>0.008065223693847656</v>
+        <v>0.002002954483032227</v>
       </c>
     </row>
     <row r="112">
@@ -5724,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>0.001991033554077148</v>
       </c>
     </row>
     <row r="113">
@@ -5771,7 +5771,7 @@
         <v>16</v>
       </c>
       <c r="O113" t="n">
-        <v>0.01850223541259766</v>
+        <v>0.006363391876220703</v>
       </c>
     </row>
     <row r="114">
@@ -5818,7 +5818,7 @@
         <v>17</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>0.001998662948608398</v>
       </c>
     </row>
     <row r="115">
@@ -5865,7 +5865,7 @@
         <v>18</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>0.003018617630004883</v>
       </c>
     </row>
     <row r="116">
@@ -5912,7 +5912,7 @@
         <v>18</v>
       </c>
       <c r="O116" t="n">
-        <v>0.05699539184570312</v>
+        <v>0.03776764869689941</v>
       </c>
     </row>
     <row r="117">
@@ -5959,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0009984970092773438</v>
+        <v>0.001088857650756836</v>
       </c>
     </row>
     <row r="118">
@@ -6006,7 +6006,7 @@
         <v>13</v>
       </c>
       <c r="O118" t="n">
-        <v>0.001671314239501953</v>
+        <v>0.0005028247833251953</v>
       </c>
     </row>
     <row r="119">
@@ -6053,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="O119" t="n">
-        <v>0.001191377639770508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6100,7 +6100,7 @@
         <v>10</v>
       </c>
       <c r="O120" t="n">
-        <v>0.001081228256225586</v>
+        <v>0.00100398063659668</v>
       </c>
     </row>
     <row r="121">
@@ -6194,7 +6194,7 @@
         <v>12</v>
       </c>
       <c r="O122" t="n">
-        <v>0.008696317672729492</v>
+        <v>0.0145106315612793</v>
       </c>
     </row>
     <row r="123">
@@ -6241,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="O123" t="n">
-        <v>0.001321792602539062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6382,7 +6382,7 @@
         <v>6</v>
       </c>
       <c r="O126" t="n">
-        <v>0.001008033752441406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6429,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>0.0005195140838623047</v>
       </c>
     </row>
     <row r="128">
@@ -6476,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="O128" t="n">
-        <v>0.01580524444580078</v>
+        <v>0.0009992122650146484</v>
       </c>
     </row>
     <row r="129">
@@ -6523,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>0.0009965896606445312</v>
       </c>
     </row>
     <row r="130">
@@ -6570,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -6664,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>0.0007159709930419922</v>
       </c>
     </row>
     <row r="133">
@@ -6711,7 +6711,7 @@
         <v>8</v>
       </c>
       <c r="O133" t="n">
-        <v>0.001022100448608398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>0.001001358032226562</v>
       </c>
     </row>
     <row r="137">
@@ -7040,7 +7040,7 @@
         <v>5</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>0.001006126403808594</v>
       </c>
     </row>
     <row r="141">
@@ -7087,7 +7087,7 @@
         <v>6</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>0.001611709594726562</v>
       </c>
     </row>
     <row r="142">
@@ -7181,7 +7181,7 @@
         <v>4</v>
       </c>
       <c r="O143" t="n">
-        <v>0.001002788543701172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -7322,7 +7322,7 @@
         <v>6</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>0.0008375644683837891</v>
       </c>
     </row>
     <row r="147">
@@ -7369,7 +7369,7 @@
         <v>7</v>
       </c>
       <c r="O147" t="n">
-        <v>0.001511573791503906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -7416,7 +7416,7 @@
         <v>6</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>0.00602269172668457</v>
       </c>
     </row>
     <row r="149">
@@ -7463,7 +7463,7 @@
         <v>8</v>
       </c>
       <c r="O149" t="n">
-        <v>0.02537274360656738</v>
+        <v>0.01870250701904297</v>
       </c>
     </row>
     <row r="150">
@@ -7510,7 +7510,7 @@
         <v>8</v>
       </c>
       <c r="O150" t="n">
-        <v>0.04702925682067871</v>
+        <v>0.02051353454589844</v>
       </c>
     </row>
     <row r="151">
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1357889175415039</v>
+        <v>0.05555319786071777</v>
       </c>
     </row>
     <row r="152">
@@ -7604,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>0.0009152889251708984</v>
       </c>
     </row>
     <row r="153">
@@ -7651,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="O153" t="n">
-        <v>0.008980989456176758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7745,7 +7745,7 @@
         <v>14</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="156">
@@ -7933,7 +7933,7 @@
         <v>13</v>
       </c>
       <c r="O159" t="n">
-        <v>0.03620171546936035</v>
+        <v>0.04638528823852539</v>
       </c>
     </row>
     <row r="160">
@@ -7980,7 +7980,7 @@
         <v>13</v>
       </c>
       <c r="O160" t="n">
-        <v>0.001968145370483398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -8027,7 +8027,7 @@
         <v>14</v>
       </c>
       <c r="O161" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.008521795272827148</v>
       </c>
     </row>
     <row r="162">
@@ -8121,7 +8121,7 @@
         <v>12</v>
       </c>
       <c r="O163" t="n">
-        <v>0.004439830780029297</v>
+        <v>0.001996040344238281</v>
       </c>
     </row>
     <row r="164">
@@ -8168,7 +8168,7 @@
         <v>13</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>0.0009965896606445312</v>
       </c>
     </row>
     <row r="165">
@@ -8262,7 +8262,7 @@
         <v>11</v>
       </c>
       <c r="O166" t="n">
-        <v>0.007639169692993164</v>
+        <v>0.002916574478149414</v>
       </c>
     </row>
     <row r="167">
@@ -8309,7 +8309,7 @@
         <v>12</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>0.001841306686401367</v>
       </c>
     </row>
     <row r="168">
@@ -8356,7 +8356,7 @@
         <v>12</v>
       </c>
       <c r="O168" t="n">
-        <v>0.004057168960571289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -8403,7 +8403,7 @@
         <v>13</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>0.009624958038330078</v>
       </c>
     </row>
     <row r="170">
@@ -8450,7 +8450,7 @@
         <v>13</v>
       </c>
       <c r="O170" t="n">
-        <v>0.03587508201599121</v>
+        <v>0.01565456390380859</v>
       </c>
     </row>
     <row r="171">
@@ -8497,7 +8497,7 @@
         <v>13</v>
       </c>
       <c r="O171" t="n">
-        <v>0.03641176223754883</v>
+        <v>0.04068517684936523</v>
       </c>
     </row>
     <row r="172">
@@ -8544,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="O172" t="n">
-        <v>0.01201605796813965</v>
+        <v>0.009683609008789062</v>
       </c>
     </row>
     <row r="173">
@@ -8591,7 +8591,7 @@
         <v>10</v>
       </c>
       <c r="O173" t="n">
-        <v>0.00126338005065918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -8638,7 +8638,7 @@
         <v>8</v>
       </c>
       <c r="O174" t="n">
-        <v>0.02107048034667969</v>
+        <v>0.0101017951965332</v>
       </c>
     </row>
     <row r="175">
@@ -8685,7 +8685,7 @@
         <v>8</v>
       </c>
       <c r="O175" t="n">
-        <v>0.04343914985656738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -8732,7 +8732,7 @@
         <v>8</v>
       </c>
       <c r="O176" t="n">
-        <v>0.008177995681762695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -8779,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0009548664093017578</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
